--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uipath - Youtube\Uipath workflows\Excel Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0645A5-4D2E-41AC-927F-AF702778D64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EEB524-7C62-4EE7-88D0-D2ADD55C3A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{6FC585A1-0C3E-4E50-A5D2-7684A85E7F27}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{6FC585A1-0C3E-4E50-A5D2-7684A85E7F27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test_Item" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -51,6 +52,60 @@
   </si>
   <si>
     <t>Network</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>WIID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Research Client Check Copy</t>
+  </si>
+  <si>
+    <t>WI2</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Calculate Client Security Hash</t>
+  </si>
+  <si>
+    <t>WI5</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Generate Yearly Report for Vendor</t>
+  </si>
+  <si>
+    <t>WI4</t>
+  </si>
+  <si>
+    <t>Process Vendor Invoice</t>
+  </si>
+  <si>
+    <t>WI3</t>
+  </si>
+  <si>
+    <t>Verify Account Position</t>
+  </si>
+  <si>
+    <t>WI1</t>
   </si>
 </sst>
 </file>
@@ -86,8 +141,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC50D291-6AAE-4256-AB7B-FB36CA7281A5}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -435,4 +491,1557 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815C23B0-0A7C-4E67-8BDD-0D9E1E3D9D87}">
+  <dimension ref="A1:F92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1">
+        <v>43148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1">
+        <v>43302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1">
+        <v>43270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1">
+        <v>44016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>84522990</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>84523059</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1">
+        <v>43816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>84523058</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1">
+        <v>43607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>84522987</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1">
+        <v>43392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>84523052</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>84522998</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1">
+        <v>43273</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>84523036</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>84523003</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1">
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>84523043</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1">
+        <v>43245</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>84523069</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1">
+        <v>43693</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>84523051</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1">
+        <v>43541</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>84523032</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>84523075</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="1">
+        <v>44549</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>84522995</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1">
+        <v>43563</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>84523008</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1">
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>84523030</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>84523015</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1">
+        <v>42811</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>84522988</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="1">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>84523035</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>84523021</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1">
+        <v>42990</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>84523061</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>84523017</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="1">
+        <v>42851</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>84523066</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>84523042</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="1">
+        <v>43268</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>84523025</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="1">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>84522992</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="1">
+        <v>42907</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>84522997</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="1">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>84523067</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="1">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>84523026</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="1">
+        <v>44674</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>84523076</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="1">
+        <v>42757</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>84523027</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="1">
+        <v>43119</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>84523033</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="1">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>84523007</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="1">
+        <v>43335</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>84523013</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="1">
+        <v>42902</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>84523071</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="1">
+        <v>44556</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>84523048</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="1">
+        <v>44685</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>84523002</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="1">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>84523054</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="1">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>84523031</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="1">
+        <v>43366</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>84523044</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="1">
+        <v>43941</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>84523024</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="1">
+        <v>43630</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>84523006</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="1">
+        <v>42942</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>84523053</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="1">
+        <v>43369</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>84523000</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="1">
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>84523016</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="1">
+        <v>43054</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>84523012</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="1">
+        <v>44033</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>84523041</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="1">
+        <v>44233</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>84522991</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="1">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>84523046</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="1">
+        <v>44266</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>84523074</v>
+      </c>
+      <c r="C60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="1">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>84523019</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="1">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>84523022</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="1">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>84523060</v>
+      </c>
+      <c r="C63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="1">
+        <v>44059</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>84523065</v>
+      </c>
+      <c r="C64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="1">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>84523011</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="1">
+        <v>43387</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>84523028</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="1">
+        <v>44723</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>84523068</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="1">
+        <v>44381</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>84523020</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="1">
+        <v>42845</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>84522996</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="1">
+        <v>43846</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>84523055</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>84523070</v>
+      </c>
+      <c r="C71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="1">
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>84523034</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="1">
+        <v>42855</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>84523077</v>
+      </c>
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="1">
+        <v>43445</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>84523073</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="1">
+        <v>44257</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>84522993</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="1">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>84523009</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="1">
+        <v>43316</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>84523064</v>
+      </c>
+      <c r="C77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="1">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>84523029</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="1">
+        <v>43183</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>84523049</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="1">
+        <v>44202</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>84523045</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="1">
+        <v>44624</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>84523063</v>
+      </c>
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="1">
+        <v>42889</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>84523040</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="1">
+        <v>44625</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>84523047</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="1">
+        <v>43197</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>84523010</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="1">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>84523001</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="1">
+        <v>43032</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>84522989</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" s="1">
+        <v>44070</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>84523072</v>
+      </c>
+      <c r="C87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="1">
+        <v>44419</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>84523037</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="1">
+        <v>43403</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>84523038</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="1">
+        <v>43017</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>84523057</v>
+      </c>
+      <c r="C90" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="1">
+        <v>44556</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>84523023</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="1">
+        <v>42929</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>84523018</v>
+      </c>
+      <c r="C92" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="1">
+        <v>43171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>